--- a/tests/data.scripts/test/calorimetry/ds.08.ampoule.no.opt/data.xlsx
+++ b/tests/data.scripts/test/calorimetry/ds.08.ampoule.no.opt/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -731,15 +734,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -747,16 +750,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1040,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0202925032262586</v>
+        <v>0.0143489666385373</v>
       </c>
     </row>
     <row r="4">
@@ -1046,6 +1049,14 @@
       </c>
       <c r="B4" t="n">
         <v>0.0142936700282104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.233957389972189</v>
       </c>
     </row>
   </sheetData>
@@ -1073,18 +1084,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1092,13 +1103,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1106,13 +1117,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1120,13 +1131,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1148,16 +1159,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -1176,13 +1187,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1190,13 +1201,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1204,13 +1215,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1218,13 +1229,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1232,13 +1243,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1246,13 +1257,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1260,13 +1271,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1274,13 +1285,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1302,7 +1313,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
